--- a/data/trans_orig/IP07A25_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A25_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAF85960-24E2-41EC-8D47-5B0C848B6423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F716326B-62C6-45C8-9052-366E8AEBF03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{46EC2312-8A07-4588-8596-5AA0D44FA73D}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{26F3D02A-7ED1-45C0-8D3D-DACB91ECAD16}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,10 +65,283 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>Un Poco</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Moderadamente</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
   </si>
   <si>
     <t>11,41%</t>
@@ -95,12 +368,6 @@
     <t>6,12%</t>
   </si>
   <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
     <t>30,5%</t>
   </si>
   <si>
@@ -128,9 +395,6 @@
     <t>35,89%</t>
   </si>
   <si>
-    <t>Muchísimo</t>
-  </si>
-  <si>
     <t>54,93%</t>
   </si>
   <si>
@@ -158,180 +422,165 @@
     <t>64,28%</t>
   </si>
   <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>Un Poco</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
     <t>8,7%</t>
   </si>
   <si>
@@ -413,253 +662,46 @@
     <t>61,86%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
   </si>
   <si>
     <t>13,29%</t>
@@ -741,48 +783,6 @@
   </si>
   <si>
     <t>58,24%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59D69E6-4FF4-4BCE-9A8C-8D463D719ACA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB29B116-3A9D-4A13-89C2-7331C6ACA9AE}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1292,10 +1292,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>16755</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1307,238 +1307,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>6535</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>26</v>
-      </c>
-      <c r="N4" s="7">
-        <v>23290</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>636</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>636</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="7">
-        <v>56</v>
-      </c>
-      <c r="D5" s="7">
-        <v>44774</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>39</v>
-      </c>
-      <c r="I5" s="7">
-        <v>28994</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>95</v>
-      </c>
-      <c r="N5" s="7">
-        <v>73768</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>80648</v>
+        <v>579</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>65965</v>
+        <v>1671</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M6" s="7">
-        <v>182</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>146613</v>
+        <v>2250</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>1576</v>
+        <v>4058</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>6573</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>1576</v>
+        <v>10631</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1282</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="7">
         <v>3</v>
       </c>
-      <c r="D8" s="7">
-        <v>3072</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
       <c r="I8" s="7">
-        <v>745</v>
+        <v>1524</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" s="7">
-        <v>3817</v>
+        <v>2805</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1547,306 +1547,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>173</v>
+        <v>9</v>
       </c>
       <c r="D9" s="7">
-        <v>146825</v>
+        <v>6555</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I9" s="7">
-        <v>102239</v>
+        <v>9768</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="M9" s="7">
-        <v>309</v>
+        <v>25</v>
       </c>
       <c r="N9" s="7">
-        <v>249064</v>
+        <v>16322</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>18203</v>
+        <v>3701</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>5291</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>23494</v>
+        <v>3701</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>18259</v>
+        <v>1902</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>12683</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="M11" s="7">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>30942</v>
+        <v>1902</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D12" s="7">
-        <v>27212</v>
+        <v>18203</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="H12" s="7">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>33534</v>
+        <v>5291</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="M12" s="7">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="N12" s="7">
-        <v>60746</v>
+        <v>23494</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>3701</v>
+        <v>18259</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>12683</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="N13" s="7">
-        <v>3701</v>
+        <v>30942</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D14" s="7">
-        <v>1902</v>
+        <v>27212</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>33534</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="N14" s="7">
-        <v>1902</v>
+        <v>60746</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,13 +1861,13 @@
         <v>69278</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -1876,13 +1876,13 @@
         <v>51507</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="M15" s="7">
         <v>151</v>
@@ -1891,270 +1891,270 @@
         <v>120785</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1576</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="7">
-        <v>8089</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>3005</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>11094</v>
+        <v>1576</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>32895</v>
+        <v>3072</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>35203</v>
+        <v>745</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>68098</v>
+        <v>3817</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C18" s="7">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D18" s="7">
-        <v>47737</v>
+        <v>16755</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="H18" s="7">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="I18" s="7">
-        <v>58482</v>
+        <v>6535</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="M18" s="7">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="N18" s="7">
-        <v>106219</v>
+        <v>23290</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D19" s="7">
-        <v>1590</v>
+        <v>44774</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>28994</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="N19" s="7">
-        <v>1590</v>
+        <v>73768</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="D20" s="7">
-        <v>2676</v>
+        <v>80648</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H20" s="7">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="I20" s="7">
-        <v>2499</v>
+        <v>65965</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="M20" s="7">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="N20" s="7">
-        <v>5175</v>
+        <v>146613</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,54 +2163,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="D21" s="7">
-        <v>92986</v>
+        <v>146825</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H21" s="7">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I21" s="7">
-        <v>99190</v>
+        <v>102239</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="M21" s="7">
-        <v>248</v>
+        <v>309</v>
       </c>
       <c r="N21" s="7">
-        <v>192176</v>
+        <v>249064</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2219,250 +2219,250 @@
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>579</v>
+        <v>422</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>1671</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>2250</v>
+        <v>422</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>4058</v>
+        <v>816</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I23" s="7">
-        <v>6573</v>
+        <v>2473</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="N23" s="7">
-        <v>10631</v>
+        <v>3288</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C24" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D24" s="7">
-        <v>1282</v>
+        <v>11887</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="H24" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I24" s="7">
-        <v>1524</v>
+        <v>14082</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="M24" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N24" s="7">
-        <v>2805</v>
+        <v>25969</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>34946</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>26292</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>61237</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="D26" s="7">
-        <v>636</v>
+        <v>53917</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>55630</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>163</v>
       </c>
       <c r="M26" s="7">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="N26" s="7">
-        <v>636</v>
+        <v>109547</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,303 +2471,303 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="D27" s="7">
-        <v>6555</v>
+        <v>101987</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H27" s="7">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I27" s="7">
-        <v>9768</v>
+        <v>98476</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="M27" s="7">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="N27" s="7">
-        <v>16322</v>
+        <v>200463</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1590</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="7">
-        <v>11887</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="G28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>1</v>
+      </c>
+      <c r="N28" s="7">
+        <v>1590</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="H28" s="7">
-        <v>9</v>
-      </c>
-      <c r="I28" s="7">
-        <v>14082</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="M28" s="7">
-        <v>20</v>
-      </c>
-      <c r="N28" s="7">
-        <v>25969</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D29" s="7">
-        <v>34946</v>
+        <v>2676</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H29" s="7">
+        <v>4</v>
+      </c>
+      <c r="I29" s="7">
+        <v>2499</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="M29" s="7">
+        <v>8</v>
+      </c>
+      <c r="N29" s="7">
+        <v>5175</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H29" s="7">
-        <v>38</v>
-      </c>
-      <c r="I29" s="7">
-        <v>26292</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M29" s="7">
-        <v>76</v>
-      </c>
-      <c r="N29" s="7">
-        <v>61237</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C30" s="7">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="D30" s="7">
-        <v>53917</v>
+        <v>8089</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H30" s="7">
+        <v>4</v>
+      </c>
+      <c r="I30" s="7">
+        <v>3005</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M30" s="7">
+        <v>15</v>
+      </c>
+      <c r="N30" s="7">
+        <v>11094</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H30" s="7">
-        <v>70</v>
-      </c>
-      <c r="I30" s="7">
-        <v>55630</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="M30" s="7">
-        <v>129</v>
-      </c>
-      <c r="N30" s="7">
-        <v>109547</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D31" s="7">
-        <v>422</v>
+        <v>32895</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H31" s="7">
+        <v>46</v>
+      </c>
+      <c r="I31" s="7">
+        <v>35203</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="M31" s="7">
+        <v>90</v>
+      </c>
+      <c r="N31" s="7">
+        <v>68098</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M31" s="7">
-        <v>1</v>
-      </c>
-      <c r="N31" s="7">
-        <v>422</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D32" s="7">
-        <v>816</v>
+        <v>47737</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="7">
+        <v>77</v>
+      </c>
+      <c r="I32" s="7">
+        <v>58482</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="H32" s="7">
-        <v>3</v>
-      </c>
-      <c r="I32" s="7">
-        <v>2473</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>134</v>
+      </c>
+      <c r="N32" s="7">
+        <v>106219</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="M32" s="7">
-        <v>4</v>
-      </c>
-      <c r="N32" s="7">
-        <v>3288</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>207</v>
@@ -2779,49 +2779,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D33" s="7">
-        <v>101987</v>
+        <v>92986</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H33" s="7">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="I33" s="7">
-        <v>98476</v>
+        <v>99190</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="M33" s="7">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="N33" s="7">
-        <v>200463</v>
+        <v>192176</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,10 +2832,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="D34" s="7">
-        <v>55513</v>
+        <v>7288</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>208</v>
@@ -2847,217 +2847,217 @@
         <v>210</v>
       </c>
       <c r="H34" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>30584</v>
+        <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M34" s="7">
+        <v>6</v>
+      </c>
+      <c r="N34" s="7">
+        <v>7288</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="M34" s="7">
-        <v>85</v>
-      </c>
-      <c r="N34" s="7">
-        <v>86097</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="7">
+        <v>12</v>
+      </c>
+      <c r="D35" s="7">
+        <v>9102</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H35" s="7">
+        <v>8</v>
+      </c>
+      <c r="I35" s="7">
+        <v>5717</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="M35" s="7">
         <v>20</v>
       </c>
-      <c r="C35" s="7">
-        <v>169</v>
-      </c>
-      <c r="D35" s="7">
-        <v>134933</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G35" s="7" t="s">
+      <c r="N35" s="7">
+        <v>14819</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="H35" s="7">
-        <v>156</v>
-      </c>
-      <c r="I35" s="7">
-        <v>109744</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="P35" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M35" s="7">
-        <v>325</v>
-      </c>
-      <c r="N35" s="7">
-        <v>244677</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C36" s="7">
-        <v>246</v>
+        <v>54</v>
       </c>
       <c r="D36" s="7">
-        <v>210795</v>
+        <v>55513</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H36" s="7">
+        <v>31</v>
+      </c>
+      <c r="I36" s="7">
+        <v>30584</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>85</v>
+      </c>
+      <c r="N36" s="7">
+        <v>86097</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H36" s="7">
-        <v>281</v>
-      </c>
-      <c r="I36" s="7">
-        <v>215135</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="M36" s="7">
-        <v>527</v>
-      </c>
-      <c r="N36" s="7">
-        <v>425930</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C37" s="7">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="D37" s="7">
-        <v>7288</v>
+        <v>134933</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H37" s="7">
+        <v>156</v>
+      </c>
+      <c r="I37" s="7">
+        <v>109744</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>325</v>
+      </c>
+      <c r="N37" s="7">
+        <v>244677</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M37" s="7">
-        <v>6</v>
-      </c>
-      <c r="N37" s="7">
-        <v>7288</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C38" s="7">
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="D38" s="7">
-        <v>9102</v>
+        <v>210795</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="H38" s="7">
+        <v>281</v>
+      </c>
+      <c r="I38" s="7">
+        <v>215135</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="H38" s="7">
-        <v>8</v>
-      </c>
-      <c r="I38" s="7">
-        <v>5717</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>244</v>
@@ -3066,10 +3066,10 @@
         <v>245</v>
       </c>
       <c r="M38" s="7">
-        <v>20</v>
+        <v>527</v>
       </c>
       <c r="N38" s="7">
-        <v>14819</v>
+        <v>425930</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>246</v>
@@ -3093,13 +3093,13 @@
         <v>417631</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H39" s="7">
         <v>476</v>
@@ -3108,13 +3108,13 @@
         <v>361180</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="M39" s="7">
         <v>963</v>
@@ -3123,13 +3123,13 @@
         <v>778811</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A25_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A25_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F716326B-62C6-45C8-9052-366E8AEBF03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F5AED6F-675C-4E1B-BB00-B3ED566A360C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{26F3D02A-7ED1-45C0-8D3D-DACB91ECAD16}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4D4A6D61-CD10-4D49-8FBD-164E3CC8D7C0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="250">
   <si>
     <t>Menores según frecuencia de haberle ido bien en el colegio en 2023 (Tasa respuesta: 50,16%)</t>
   </si>
@@ -68,721 +68,724 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>Un Poco</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
     <t>Nada</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>18,74%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
     <t>7,32%</t>
   </si>
   <si>
-    <t>Un Poco</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>Muchísimo</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
+    <t>20,64%</t>
   </si>
   <si>
     <t>3,06%</t>
   </si>
   <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -793,7 +796,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -889,39 +892,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -973,7 +976,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1084,13 +1087,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1099,6 +1095,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1163,19 +1166,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB29B116-3A9D-4A13-89C2-7331C6ACA9AE}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4D4BA3-6EC7-47AE-8005-15F949910B84}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1292,10 +1315,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1282</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1307,91 +1330,91 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1524</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2805</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4058</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>11</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6573</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7">
         <v>16</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>636</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
       <c r="N5" s="7">
-        <v>636</v>
+        <v>10631</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -1400,13 +1423,13 @@
         <v>579</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -1415,13 +1438,13 @@
         <v>1671</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -1430,112 +1453,112 @@
         <v>2250</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>4058</v>
+        <v>636</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>6573</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="M7" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>10631</v>
+        <v>636</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>1282</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1524</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="M8" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>2805</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>47</v>
@@ -1600,106 +1623,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>3701</v>
+        <v>27212</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>33534</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="N10" s="7">
-        <v>3701</v>
+        <v>60746</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D11" s="7">
-        <v>1902</v>
+        <v>18259</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>12683</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="N11" s="7">
-        <v>1902</v>
+        <v>30942</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>14</v>
@@ -1708,13 +1731,13 @@
         <v>18203</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -1723,13 +1746,13 @@
         <v>5291</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>21</v>
@@ -1738,112 +1761,112 @@
         <v>23494</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>18259</v>
+        <v>1902</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>12683</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>30942</v>
+        <v>1902</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>27212</v>
+        <v>3701</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="7">
-        <v>44</v>
-      </c>
-      <c r="I14" s="7">
-        <v>33534</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="M14" s="7">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>60746</v>
+        <v>3701</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>87</v>
@@ -1908,106 +1931,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D16" s="7">
-        <v>1576</v>
+        <v>80648</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>65965</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="N16" s="7">
-        <v>1576</v>
+        <v>146613</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="D17" s="7">
-        <v>3072</v>
+        <v>44774</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="7">
+        <v>39</v>
+      </c>
+      <c r="I17" s="7">
+        <v>28994</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" s="7">
         <v>95</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>745</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M17" s="7">
-        <v>4</v>
-      </c>
       <c r="N17" s="7">
-        <v>3817</v>
+        <v>73768</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>17</v>
@@ -2016,13 +2039,13 @@
         <v>16755</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -2031,13 +2054,13 @@
         <v>6535</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M18" s="7">
         <v>26</v>
@@ -2046,112 +2069,112 @@
         <v>23290</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>44774</v>
+        <v>3072</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H19" s="7">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>28994</v>
+        <v>745</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M19" s="7">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>73768</v>
+        <v>3817</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>80648</v>
+        <v>1576</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>65965</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M20" s="7">
-        <v>182</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>146613</v>
+        <v>1576</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>127</v>
@@ -2216,106 +2239,106 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="D22" s="7">
-        <v>422</v>
+        <v>53917</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>129</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>55630</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="N22" s="7">
-        <v>422</v>
+        <v>109547</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D23" s="7">
-        <v>816</v>
+        <v>34946</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="I23" s="7">
-        <v>2473</v>
+        <v>26292</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="M23" s="7">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="N23" s="7">
-        <v>3288</v>
+        <v>61237</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>11</v>
@@ -2324,13 +2347,13 @@
         <v>11887</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="H24" s="7">
         <v>9</v>
@@ -2339,13 +2362,13 @@
         <v>14082</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="M24" s="7">
         <v>20</v>
@@ -2354,115 +2377,115 @@
         <v>25969</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>34946</v>
+        <v>816</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H25" s="7">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>26292</v>
+        <v>2473</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="M25" s="7">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="N25" s="7">
-        <v>61237</v>
+        <v>3288</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>53917</v>
+        <v>422</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H26" s="7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>55630</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="M26" s="7">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>109547</v>
+        <v>422</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,112 +2541,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D28" s="7">
-        <v>1590</v>
+        <v>47737</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>58482</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="N28" s="7">
-        <v>1590</v>
+        <v>106219</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D29" s="7">
-        <v>2676</v>
+        <v>32895</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H29" s="7">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="I29" s="7">
-        <v>2499</v>
+        <v>35203</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M29" s="7">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="N29" s="7">
-        <v>5175</v>
+        <v>68098</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>11</v>
@@ -2632,13 +2655,13 @@
         <v>8089</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -2647,13 +2670,13 @@
         <v>3005</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -2662,115 +2685,115 @@
         <v>11094</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="D31" s="7">
-        <v>32895</v>
+        <v>2676</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H31" s="7">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="I31" s="7">
-        <v>35203</v>
+        <v>2499</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M31" s="7">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="N31" s="7">
-        <v>68098</v>
+        <v>5175</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>47737</v>
+        <v>1590</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H32" s="7">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>58482</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M32" s="7">
-        <v>134</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>106219</v>
+        <v>1590</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,106 +2855,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>6</v>
+        <v>246</v>
       </c>
       <c r="D34" s="7">
-        <v>7288</v>
+        <v>210795</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H34" s="7">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="I34" s="7">
-        <v>0</v>
+        <v>215135</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>11</v>
+        <v>212</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="M34" s="7">
-        <v>6</v>
+        <v>527</v>
       </c>
       <c r="N34" s="7">
-        <v>7288</v>
+        <v>425930</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="D35" s="7">
-        <v>9102</v>
+        <v>134933</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H35" s="7">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="I35" s="7">
-        <v>5717</v>
+        <v>109744</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>58</v>
+        <v>221</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="M35" s="7">
-        <v>20</v>
+        <v>325</v>
       </c>
       <c r="N35" s="7">
-        <v>14819</v>
+        <v>244677</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>54</v>
@@ -2940,13 +2963,13 @@
         <v>55513</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H36" s="7">
         <v>31</v>
@@ -2955,13 +2978,13 @@
         <v>30584</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="M36" s="7">
         <v>85</v>
@@ -2970,106 +2993,106 @@
         <v>86097</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="D37" s="7">
-        <v>134933</v>
+        <v>9102</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="H37" s="7">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="I37" s="7">
-        <v>109744</v>
+        <v>5717</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="M37" s="7">
-        <v>325</v>
+        <v>20</v>
       </c>
       <c r="N37" s="7">
-        <v>244677</v>
+        <v>14819</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C38" s="7">
-        <v>246</v>
+        <v>6</v>
       </c>
       <c r="D38" s="7">
-        <v>210795</v>
+        <v>7288</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H38" s="7">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>215135</v>
+        <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>244</v>
+        <v>41</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>245</v>
+        <v>116</v>
       </c>
       <c r="M38" s="7">
-        <v>527</v>
+        <v>6</v>
       </c>
       <c r="N38" s="7">
-        <v>425930</v>
+        <v>7288</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>246</v>
@@ -3130,6 +3153,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A25_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A25_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F5AED6F-675C-4E1B-BB00-B3ED566A360C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F6EC162-941E-485F-8F96-079D6E3CDAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4D4A6D61-CD10-4D49-8FBD-164E3CC8D7C0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{118A1E29-9C69-4216-BF20-0EEAB9BEDDF8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="248">
   <si>
     <t>Menores según frecuencia de haberle ido bien en el colegio en 2023 (Tasa respuesta: 50,16%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Muchísimo</t>
@@ -77,25 +77,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>52,0%</t>
+    <t>58,72%</t>
   </si>
   <si>
     <t>15,6%</t>
   </si>
   <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
   </si>
   <si>
     <t>17,19%</t>
   </si>
   <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -104,28 +104,28 @@
     <t>61,91%</t>
   </si>
   <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
   </si>
   <si>
     <t>67,3%</t>
   </si>
   <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
   </si>
   <si>
     <t>65,13%</t>
   </si>
   <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
   </si>
   <si>
     <t>Moderadamente</t>
@@ -134,22 +134,22 @@
     <t>8,83%</t>
   </si>
   <si>
-    <t>42,54%</t>
+    <t>42,97%</t>
   </si>
   <si>
     <t>17,11%</t>
   </si>
   <si>
-    <t>41,65%</t>
+    <t>49,97%</t>
   </si>
   <si>
     <t>13,78%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
   </si>
   <si>
     <t>Un Poco</t>
@@ -158,7 +158,7 @@
     <t>9,71%</t>
   </si>
   <si>
-    <t>43,65%</t>
+    <t>47,33%</t>
   </si>
   <si>
     <t>0%</t>
@@ -170,7 +170,7 @@
     <t>3,9%</t>
   </si>
   <si>
-    <t>19,91%</t>
+    <t>16,48%</t>
   </si>
   <si>
     <t>Nada</t>
@@ -185,88 +185,85 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>39,28%</t>
   </si>
   <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
   </si>
   <si>
     <t>65,11%</t>
   </si>
   <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
   </si>
   <si>
     <t>50,29%</t>
   </si>
   <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
   </si>
   <si>
     <t>26,36%</t>
   </si>
   <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
   </si>
   <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
+    <t>35,24%</t>
   </si>
   <si>
     <t>25,62%</t>
   </si>
   <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
   </si>
   <si>
     <t>26,28%</t>
   </si>
   <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
   </si>
   <si>
     <t>10,27%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
   </si>
   <si>
     <t>19,45%</t>
   </si>
   <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
   </si>
   <si>
     <t>2,75%</t>
@@ -275,7 +272,7 @@
     <t>0,59%</t>
   </si>
   <si>
-    <t>8,03%</t>
+    <t>8,15%</t>
   </si>
   <si>
     <t>2,59%</t>
@@ -287,100 +284,103 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>4,9%</t>
+    <t>4,47%</t>
   </si>
   <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>20,64%</t>
+    <t>17,74%</t>
   </si>
   <si>
     <t>3,06%</t>
   </si>
   <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
     <t>11,41%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
   </si>
   <si>
     <t>6,39%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
   </si>
   <si>
     <t>9,35%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
   </si>
   <si>
     <t>2,09%</t>
@@ -389,157 +389,154 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>6,93%</t>
+    <t>7,26%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>4,11%</t>
+    <t>3,95%</t>
   </si>
   <si>
     <t>1,53%</t>
   </si>
   <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
+    <t>4,51%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>2,39%</t>
+    <t>2,47%</t>
   </si>
   <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,32%</t>
+    <t>1,06%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -548,112 +545,109 @@
     <t>51,34%</t>
   </si>
   <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
   </si>
   <si>
     <t>58,96%</t>
   </si>
   <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
   </si>
   <si>
     <t>55,27%</t>
   </si>
   <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
   </si>
   <si>
     <t>35,38%</t>
   </si>
   <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
   </si>
   <si>
     <t>35,49%</t>
   </si>
   <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
   </si>
   <si>
     <t>35,44%</t>
   </si>
   <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
   </si>
   <si>
     <t>5,77%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
   </si>
   <si>
     <t>2,88%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
   </si>
   <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>9,34%</t>
+    <t>9,0%</t>
   </si>
   <si>
     <t>1,45%</t>
@@ -662,127 +656,127 @@
     <t>0,83%</t>
   </si>
   <si>
-    <t>4,93%</t>
+    <t>4,79%</t>
   </si>
   <si>
     <t>50,47%</t>
   </si>
   <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
   </si>
   <si>
     <t>59,56%</t>
   </si>
   <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
   </si>
   <si>
     <t>54,69%</t>
   </si>
   <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
   </si>
   <si>
     <t>32,31%</t>
   </si>
   <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
+    <t>27,79%</t>
   </si>
   <si>
     <t>30,38%</t>
   </si>
   <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
   </si>
   <si>
     <t>31,42%</t>
   </si>
   <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
   </si>
   <si>
     <t>8,47%</t>
   </si>
   <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
   </si>
   <si>
     <t>1,9%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1197,7 +1191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4D4BA3-6EC7-47AE-8005-15F949910B84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34205D3F-1844-4F7B-A064-F0173F489111}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1698,10 +1692,10 @@
         <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>48</v>
@@ -1710,13 +1704,13 @@
         <v>30942</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1731,13 +1725,13 @@
         <v>18203</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -1746,13 +1740,13 @@
         <v>5291</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>21</v>
@@ -1761,13 +1755,13 @@
         <v>23494</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1782,13 +1776,13 @@
         <v>1902</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1803,7 +1797,7 @@
         <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -1812,13 +1806,13 @@
         <v>1902</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,13 +1827,13 @@
         <v>3701</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1854,7 +1848,7 @@
         <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -1863,13 +1857,13 @@
         <v>3701</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,7 +1919,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1937,13 +1931,13 @@
         <v>80648</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>87</v>
@@ -1952,13 +1946,13 @@
         <v>65965</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>182</v>
@@ -1967,13 +1961,13 @@
         <v>146613</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1988,13 +1982,13 @@
         <v>44774</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -2003,13 +1997,13 @@
         <v>28994</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>95</v>
@@ -2018,13 +2012,13 @@
         <v>73768</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2039,7 +2033,7 @@
         <v>16755</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>107</v>
@@ -2263,10 +2257,10 @@
         <v>132</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M22" s="7">
         <v>129</v>
@@ -2275,13 +2269,13 @@
         <v>109547</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,13 +2290,13 @@
         <v>34946</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H23" s="7">
         <v>38</v>
@@ -2311,13 +2305,13 @@
         <v>26292</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M23" s="7">
         <v>76</v>
@@ -2326,13 +2320,13 @@
         <v>61237</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,13 +2341,13 @@
         <v>11887</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H24" s="7">
         <v>9</v>
@@ -2362,13 +2356,13 @@
         <v>14082</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M24" s="7">
         <v>20</v>
@@ -2377,13 +2371,13 @@
         <v>25969</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2392,13 @@
         <v>816</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2413,13 +2407,13 @@
         <v>2473</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2428,13 +2422,13 @@
         <v>3288</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,13 +2443,13 @@
         <v>422</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2470,7 +2464,7 @@
         <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2479,13 +2473,13 @@
         <v>422</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2541,7 +2535,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2553,13 +2547,13 @@
         <v>47737</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H28" s="7">
         <v>77</v>
@@ -2568,13 +2562,13 @@
         <v>58482</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M28" s="7">
         <v>134</v>
@@ -2583,13 +2577,13 @@
         <v>106219</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,13 +2598,13 @@
         <v>32895</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H29" s="7">
         <v>46</v>
@@ -2619,13 +2613,13 @@
         <v>35203</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M29" s="7">
         <v>90</v>
@@ -2634,13 +2628,13 @@
         <v>68098</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,13 +2649,13 @@
         <v>8089</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -2670,13 +2664,13 @@
         <v>3005</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -2685,13 +2679,13 @@
         <v>11094</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,13 +2700,13 @@
         <v>2676</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -2721,13 +2715,13 @@
         <v>2499</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M31" s="7">
         <v>8</v>
@@ -2736,13 +2730,13 @@
         <v>5175</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,13 +2751,13 @@
         <v>1590</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2778,7 +2772,7 @@
         <v>41</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2787,13 +2781,13 @@
         <v>1590</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,13 +2855,13 @@
         <v>210795</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H34" s="7">
         <v>281</v>
@@ -2876,13 +2870,13 @@
         <v>215135</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M34" s="7">
         <v>527</v>
@@ -2891,13 +2885,13 @@
         <v>425930</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2906,13 @@
         <v>134933</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>220</v>
+        <v>102</v>
       </c>
       <c r="H35" s="7">
         <v>156</v>
@@ -2927,13 +2921,13 @@
         <v>109744</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M35" s="7">
         <v>325</v>
@@ -2942,13 +2936,13 @@
         <v>244677</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2957,13 @@
         <v>55513</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H36" s="7">
         <v>31</v>
@@ -2978,13 +2972,13 @@
         <v>30584</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M36" s="7">
         <v>85</v>
@@ -2993,13 +2987,13 @@
         <v>86097</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,13 +3008,13 @@
         <v>9102</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H37" s="7">
         <v>8</v>
@@ -3029,13 +3023,13 @@
         <v>5717</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>110</v>
+        <v>237</v>
       </c>
       <c r="M37" s="7">
         <v>20</v>
@@ -3044,13 +3038,13 @@
         <v>14819</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,13 +3059,13 @@
         <v>7288</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -3095,13 +3089,13 @@
         <v>7288</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,7 +3151,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A25_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A25_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F6EC162-941E-485F-8F96-079D6E3CDAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F366F4C9-967A-44CD-9EAF-107F9DF61AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{118A1E29-9C69-4216-BF20-0EEAB9BEDDF8}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{7A21FAB2-0729-43FB-90D5-F25382C5E0AC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="248">
-  <si>
-    <t>Menores según frecuencia de haberle ido bien en el colegio en 2023 (Tasa respuesta: 50,16%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="219">
+  <si>
+    <t>Menores según frecuencia de haberle ido bien en el colegio en 2023 (Tasa respuesta: 50,21%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,718 +65,631 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
-  </si>
-  <si>
-    <t>Muchísimo</t>
-  </si>
-  <si>
-    <t>19,55%</t>
+    <t>&lt;10.000 hab</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>1,31%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
   </si>
   <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>Un Poco</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1191,8 +1104,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34205D3F-1844-4F7B-A064-F0173F489111}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BD447F-8CC8-4EFB-8578-7D02BDAC83AC}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1309,10 +1222,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D4" s="7">
-        <v>1282</v>
+        <v>38916</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1324,10 +1237,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="I4" s="7">
-        <v>1524</v>
+        <v>58122</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1339,10 +1252,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="N4" s="7">
-        <v>2805</v>
+        <v>97037</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1360,10 +1273,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7">
-        <v>4058</v>
+        <v>17124</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1375,10 +1288,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>6573</v>
+        <v>18814</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1390,10 +1303,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="N5" s="7">
-        <v>10631</v>
+        <v>35939</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1414,148 +1327,148 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>579</v>
+        <v>763</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>1671</v>
+        <v>6717</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>2250</v>
+        <v>7480</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
-        <v>636</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>636</v>
+        <v>419</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>1310</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>2312</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1564,102 +1477,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="D9" s="7">
-        <v>6555</v>
+        <v>58113</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I9" s="7">
-        <v>9768</v>
+        <v>85074</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="N9" s="7">
-        <v>16322</v>
+        <v>143187</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="D10" s="7">
-        <v>27212</v>
+        <v>62735</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="I10" s="7">
-        <v>33534</v>
+        <v>92024</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="N10" s="7">
-        <v>60746</v>
+        <v>154759</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,49 +1581,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D11" s="7">
-        <v>18259</v>
+        <v>26284</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H11" s="7">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I11" s="7">
-        <v>12683</v>
+        <v>43497</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M11" s="7">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="N11" s="7">
-        <v>30942</v>
+        <v>69781</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,151 +1632,151 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>18203</v>
+        <v>4455</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>5291</v>
+        <v>2253</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="N12" s="7">
-        <v>23494</v>
+        <v>6707</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1902</v>
+        <v>1599</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>4828</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>1902</v>
+        <v>6427</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>3701</v>
+        <v>2193</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>5752</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N14" s="7">
-        <v>3701</v>
+        <v>7945</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1872,102 +1785,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="D15" s="7">
-        <v>69278</v>
+        <v>97266</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="I15" s="7">
-        <v>51507</v>
+        <v>148353</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
-        <v>151</v>
+        <v>310</v>
       </c>
       <c r="N15" s="7">
-        <v>120785</v>
+        <v>245619</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D16" s="7">
-        <v>80648</v>
+        <v>52803</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="I16" s="7">
-        <v>65965</v>
+        <v>67097</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="N16" s="7">
-        <v>146613</v>
+        <v>119899</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,49 +1889,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D17" s="7">
-        <v>44774</v>
+        <v>61951</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I17" s="7">
-        <v>28994</v>
+        <v>38670</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="M17" s="7">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="N17" s="7">
-        <v>73768</v>
+        <v>100621</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,151 +1940,151 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>16755</v>
+        <v>2925</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="H18" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>6535</v>
+        <v>923</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="M18" s="7">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="N18" s="7">
-        <v>23290</v>
+        <v>3848</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>3072</v>
+        <v>416</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>745</v>
+        <v>923</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>3817</v>
+        <v>1339</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>1576</v>
+        <v>729</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>1352</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>1576</v>
+        <v>2081</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2180,102 +2093,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="D21" s="7">
-        <v>146825</v>
+        <v>118824</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="I21" s="7">
-        <v>102239</v>
+        <v>108964</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
-        <v>309</v>
+        <v>230</v>
       </c>
       <c r="N21" s="7">
-        <v>249064</v>
+        <v>227788</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="D22" s="7">
-        <v>53917</v>
+        <v>58343</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H22" s="7">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I22" s="7">
-        <v>55630</v>
+        <v>53607</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="M22" s="7">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="N22" s="7">
-        <v>109547</v>
+        <v>111949</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,49 +2197,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D23" s="7">
-        <v>34946</v>
+        <v>24506</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="H23" s="7">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I23" s="7">
-        <v>26292</v>
+        <v>37592</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="M23" s="7">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N23" s="7">
-        <v>61237</v>
+        <v>62098</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2335,151 +2248,151 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>9</v>
+      </c>
+      <c r="D24" s="7">
+        <v>7562</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H24" s="7">
+        <v>2</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1384</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M24" s="7">
         <v>11</v>
       </c>
-      <c r="D24" s="7">
-        <v>11887</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H24" s="7">
-        <v>9</v>
-      </c>
-      <c r="I24" s="7">
-        <v>14082</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="M24" s="7">
-        <v>20</v>
-      </c>
       <c r="N24" s="7">
-        <v>25969</v>
+        <v>8946</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3998</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H25" s="7">
         <v>1</v>
       </c>
-      <c r="D25" s="7">
-        <v>816</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
       <c r="I25" s="7">
-        <v>2473</v>
+        <v>750</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N25" s="7">
-        <v>3288</v>
+        <v>4748</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>422</v>
+        <v>1355</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>3138</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N26" s="7">
-        <v>422</v>
+        <v>4493</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,102 +2401,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D27" s="7">
-        <v>101987</v>
+        <v>95763</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I27" s="7">
-        <v>98476</v>
+        <v>96471</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="N27" s="7">
-        <v>200463</v>
+        <v>192234</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>167</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>57</v>
+        <v>299</v>
       </c>
       <c r="D28" s="7">
-        <v>47737</v>
+        <v>212797</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="H28" s="7">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="I28" s="7">
-        <v>58482</v>
+        <v>270849</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="M28" s="7">
-        <v>134</v>
+        <v>607</v>
       </c>
       <c r="N28" s="7">
-        <v>106219</v>
+        <v>483645</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,49 +2505,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="D29" s="7">
-        <v>32895</v>
+        <v>129866</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="H29" s="7">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="I29" s="7">
-        <v>35203</v>
+        <v>138573</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="M29" s="7">
-        <v>90</v>
+        <v>289</v>
       </c>
       <c r="N29" s="7">
-        <v>68098</v>
+        <v>268438</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>184</v>
+        <v>21</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,151 +2556,151 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D30" s="7">
-        <v>8089</v>
+        <v>15705</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>122</v>
+        <v>195</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="H30" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I30" s="7">
-        <v>3005</v>
+        <v>11276</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="M30" s="7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N30" s="7">
-        <v>11094</v>
+        <v>26981</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D31" s="7">
-        <v>2676</v>
+        <v>6013</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="H31" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I31" s="7">
-        <v>2499</v>
+        <v>6920</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="M31" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N31" s="7">
-        <v>5175</v>
+        <v>12932</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D32" s="7">
-        <v>1590</v>
+        <v>5587</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="H32" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I32" s="7">
-        <v>0</v>
+        <v>11245</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="M32" s="7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="N32" s="7">
-        <v>1590</v>
+        <v>16832</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,370 +2709,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>117</v>
+        <v>476</v>
       </c>
       <c r="D33" s="7">
-        <v>92986</v>
+        <v>369967</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H33" s="7">
-        <v>131</v>
+        <v>488</v>
       </c>
       <c r="I33" s="7">
-        <v>99190</v>
+        <v>438862</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M33" s="7">
-        <v>248</v>
+        <v>964</v>
       </c>
       <c r="N33" s="7">
-        <v>192176</v>
+        <v>808828</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>246</v>
-      </c>
-      <c r="D34" s="7">
-        <v>210795</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H34" s="7">
-        <v>281</v>
-      </c>
-      <c r="I34" s="7">
-        <v>215135</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M34" s="7">
-        <v>527</v>
-      </c>
-      <c r="N34" s="7">
-        <v>425930</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="7">
-        <v>169</v>
-      </c>
-      <c r="D35" s="7">
-        <v>134933</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H35" s="7">
-        <v>156</v>
-      </c>
-      <c r="I35" s="7">
-        <v>109744</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="A34" t="s">
         <v>218</v>
       </c>
-      <c r="K35" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M35" s="7">
-        <v>325</v>
-      </c>
-      <c r="N35" s="7">
-        <v>244677</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="7">
-        <v>54</v>
-      </c>
-      <c r="D36" s="7">
-        <v>55513</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H36" s="7">
-        <v>31</v>
-      </c>
-      <c r="I36" s="7">
-        <v>30584</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M36" s="7">
-        <v>85</v>
-      </c>
-      <c r="N36" s="7">
-        <v>86097</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="7">
-        <v>12</v>
-      </c>
-      <c r="D37" s="7">
-        <v>9102</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H37" s="7">
-        <v>8</v>
-      </c>
-      <c r="I37" s="7">
-        <v>5717</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="M37" s="7">
-        <v>20</v>
-      </c>
-      <c r="N37" s="7">
-        <v>14819</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="7">
-        <v>6</v>
-      </c>
-      <c r="D38" s="7">
-        <v>7288</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M38" s="7">
-        <v>6</v>
-      </c>
-      <c r="N38" s="7">
-        <v>7288</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>487</v>
-      </c>
-      <c r="D39" s="7">
-        <v>417631</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H39" s="7">
-        <v>476</v>
-      </c>
-      <c r="I39" s="7">
-        <v>361180</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M39" s="7">
-        <v>963</v>
-      </c>
-      <c r="N39" s="7">
-        <v>778811</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>247</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
